--- a/All_MIC_RFE_Results.xlsx
+++ b/All_MIC_RFE_Results.xlsx
@@ -9,28 +9,22 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjL4gQ+CfpySl6UOqsb5/Pz/wAGlA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mioiZpGfjkTywcO+V+ogsyeAKXNvw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
-  <si>
-    <t>1 to 89 of 89 entriesFilter</t>
-  </si>
-  <si>
-    <t>index</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+  <si>
+    <t>Index</t>
   </si>
   <si>
     <t>Features_col_name</t>
   </si>
   <si>
-    <t>RFE</t>
-  </si>
-  <si>
-    <t>MIC</t>
+    <t>MIC_RF_RFE</t>
   </si>
   <si>
     <t>iVecCount</t>
@@ -304,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -312,18 +306,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF212121"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <b/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF212121"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF212121"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="3">
@@ -340,7 +335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -356,19 +351,50 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -383,7 +409,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -596,6 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -604,1282 +631,1278 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.25"/>
     <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="22.13"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="28.13"/>
+    <col customWidth="1" min="4" max="4" width="17.38"/>
+    <col customWidth="1" min="5" max="5" width="21.88"/>
+    <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="8">
+        <v>0.354963721349298</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="8">
+        <v>0.270227354308593</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C4" s="8">
+        <v>0.233329266520035</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.414789421733092</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.34986338269366</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.195316260949119</v>
+      </c>
+      <c r="D7" s="8">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.246280632859931</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.0837188475140041</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.0810535389460259</v>
+      </c>
+      <c r="D10" s="8">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.0506371075589598</v>
+      </c>
+      <c r="D11" s="8">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.0271078754527497</v>
+      </c>
+      <c r="D12" s="8">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.0664769304367284</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.400444011987798</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.431485847744584</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.364340587919948</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.247778519182021</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.191534157419305</v>
+      </c>
+      <c r="D18" s="8">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.184909403690532</v>
+      </c>
+      <c r="D19" s="8">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.2049150216802</v>
+      </c>
+      <c r="D20" s="8">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.18037619975524</v>
+      </c>
+      <c r="D21" s="8">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.11574061911356</v>
+      </c>
+      <c r="D22" s="8">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.147277484305317</v>
+      </c>
+      <c r="D23" s="8">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.462069368681226</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="6">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.228689992702371</v>
+      </c>
+      <c r="D25" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.37070467944877</v>
+      </c>
+      <c r="D26" s="8">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.318535308166475</v>
+      </c>
+      <c r="D27" s="8">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.295443540215528</v>
+      </c>
+      <c r="D28" s="8">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.282175514592504</v>
+      </c>
+      <c r="D29" s="8">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="6">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.264180963613728</v>
+      </c>
+      <c r="D30" s="8">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.295641347414349</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="8">
+        <v>0.326331068659379</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.338461067248625</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.3431299378256</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="6">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0.341609940753957</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0.147745689605802</v>
+      </c>
+      <c r="D36" s="8">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.142409176884144</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="8">
+        <v>0.130559355651742</v>
+      </c>
+      <c r="D38" s="8">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="6">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.131008445238665</v>
+      </c>
+      <c r="D39" s="8">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.142441710841966</v>
+      </c>
+      <c r="D40" s="8">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="8">
         <v>0.354963721349298</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.270227354308593</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.233329266520035</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="D41" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.263561128624402</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.21126272582209</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0.395272166485448</v>
+      </c>
+      <c r="D44" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0.327845985349533</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.428302509803993</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0.510276363937404</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="6">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0.372337272325207</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="6">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.358872346706772</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="6">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.34349054334968</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="6">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0.429367125178074</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="6">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0.164069980277728</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="6">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.272537586942241</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.294871001158223</v>
+      </c>
+      <c r="D54" s="8">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="6">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.310010442094636</v>
+      </c>
+      <c r="D55" s="8">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.836206149693627</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="6">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.610763503092893</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="6">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0.0471406685465891</v>
+      </c>
+      <c r="D58" s="8">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="6">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0.0084115065224083</v>
+      </c>
+      <c r="D59" s="8">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="6">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0.0354890630264809</v>
+      </c>
+      <c r="D60" s="8">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="6">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0.492006055186059</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="6">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.494298066665907</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="6">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.42662114143881</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.392044309695979</v>
+      </c>
+      <c r="D64" s="8">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="6">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.342204612649057</v>
+      </c>
+      <c r="D65" s="8">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="6">
+        <v>64.0</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0.419424179477179</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="6">
+        <v>65.0</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0.292608981657727</v>
+      </c>
+      <c r="D67" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="6">
+        <v>66.0</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.325192915530451</v>
+      </c>
+      <c r="D68" s="8">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="6">
+        <v>67.0</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0.348470058400504</v>
+      </c>
+      <c r="D69" s="8">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="6">
+        <v>68.0</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.356487296776279</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>69.0</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.833878216978267</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.465989103753953</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.0856749832639437</v>
+      </c>
+      <c r="D73" s="8">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="6">
+        <v>72.0</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.130669677997763</v>
+      </c>
+      <c r="D74" s="8">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="6">
+        <v>73.0</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.154564068820687</v>
+      </c>
+      <c r="D75" s="8">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="6">
+        <v>74.0</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.567177615812726</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="6">
+        <v>75.0</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.553609314217783</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="6">
+        <v>76.0</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.479719708636276</v>
+      </c>
+      <c r="D78" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="6">
+        <v>77.0</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.435690459441037</v>
+      </c>
+      <c r="D79" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="6">
+        <v>78.0</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.421012229476511</v>
+      </c>
+      <c r="D80" s="8">
         <v>3.0</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.414789421733092</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10.0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.34986338269366</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
-        <v>19.0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.195316260949119</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>79.0</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.548251444795686</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="6">
+        <v>80.0</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.284560070639088</v>
+      </c>
+      <c r="D82" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="6">
+        <v>81.0</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.426459411031969</v>
+      </c>
+      <c r="D83" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>82.0</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.463341605381162</v>
+      </c>
+      <c r="D84" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="6">
+        <v>83.0</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.466579074070998</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>84.0</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.768840531389084</v>
+      </c>
+      <c r="D86" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.324420598273298</v>
+      </c>
+      <c r="D87" s="8">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="6">
+        <v>86.0</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.167872299069458</v>
+      </c>
+      <c r="D88" s="8">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>87.0</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.239243121785857</v>
+      </c>
+      <c r="D89" s="8">
         <v>6.0</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.246280632859931</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.0837188475140041</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5">
-        <v>41.0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.0810535389460259</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5">
-        <v>46.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0506371075589598</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>45.0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.0271078754527497</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>42.0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.0664769304367284</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.400444011987798</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.431485847744584</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.364340587919948</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7.0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.247778519182021</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5">
-        <v>34.0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0.191534157419305</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5">
-        <v>40.0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>0.184909403690532</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.2049150216802</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.18037619975524</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="5">
-        <v>37.0</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.11574061911356</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5">
-        <v>44.0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.147277484305317</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.462069368681226</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.228689992702371</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
-        <v>24.0</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5">
-        <v>32.0</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.37070467944877</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="5">
-        <v>21.0</v>
-      </c>
-      <c r="D28" s="5">
-        <v>0.318535308166475</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="5">
-        <v>30.0</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.295443540215528</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="6">
+        <v>88.0</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.286802761945535</v>
+      </c>
+      <c r="D90" s="8">
         <v>27.0</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5">
-        <v>24.0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.282175514592504</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="5">
-        <v>33.0</v>
-      </c>
-      <c r="D31" s="5">
-        <v>0.264180963613728</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="5">
-        <v>0.295641347414349</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
-        <v>30.0</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D33" s="5">
-        <v>0.326331068659379</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
-        <v>31.0</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="5">
-        <v>0.338461067248625</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="5">
-        <v>0.3431299378256</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>33.0</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D36" s="5">
-        <v>0.341609940753957</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
-        <v>34.0</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="5">
-        <v>26.0</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.147745689605802</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
-        <v>35.0</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0.142409176884144</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
-        <v>36.0</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="5">
-        <v>23.0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0.130559355651742</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
-        <v>37.0</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="5">
-        <v>22.0</v>
-      </c>
-      <c r="D40" s="5">
-        <v>0.131008445238665</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
-        <v>38.0</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="D41" s="5">
-        <v>0.142441710841966</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="5">
-        <v>0.354963721349298</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="5">
-        <v>0.263561128624402</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
-        <v>41.0</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="5">
-        <v>0.21126272582209</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
-        <v>42.0</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="5">
-        <v>8.0</v>
-      </c>
-      <c r="D45" s="5">
-        <v>0.395272166485448</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
-        <v>43.0</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="5">
-        <v>0.327845985349533</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
-        <v>44.0</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="5">
-        <v>0.428302509803993</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
-        <v>45.0</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D48" s="5">
-        <v>0.510276363937404</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
-        <v>46.0</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="5">
-        <v>0.372337272325207</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
-        <v>47.0</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="5">
-        <v>0.358872346706772</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
-        <v>48.0</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D51" s="5">
-        <v>0.34349054334968</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
-        <v>49.0</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="5">
-        <v>0.429367125178074</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
-        <v>50.0</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="5">
-        <v>0.164069980277728</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
-        <v>51.0</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="5">
-        <v>0.272537586942241</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3">
-        <v>52.0</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="5">
-        <v>28.0</v>
-      </c>
-      <c r="D55" s="5">
-        <v>0.294871001158223</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
-        <v>53.0</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="D56" s="5">
-        <v>0.310010442094636</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3">
-        <v>54.0</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="5">
-        <v>0.836206149693627</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3">
-        <v>55.0</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="5">
-        <v>0.610763503092893</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3">
-        <v>56.0</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="5">
-        <v>18.0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>0.0471406685465891</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3">
-        <v>57.0</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="5">
-        <v>29.0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>0.0084115065224083</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3">
-        <v>58.0</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C61" s="5">
-        <v>17.0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0.0354890630264809</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3">
-        <v>59.0</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="5">
-        <v>0.492006055186059</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3">
-        <v>60.0</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>0.494298066665907</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3">
-        <v>61.0</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D64" s="5">
-        <v>0.42662114143881</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3">
-        <v>62.0</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="D65" s="5">
-        <v>0.392044309695979</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3">
-        <v>63.0</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="5">
-        <v>25.0</v>
-      </c>
-      <c r="D66" s="5">
-        <v>0.342204612649057</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3">
-        <v>64.0</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D67" s="5">
-        <v>0.419424179477179</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="D68" s="5">
-        <v>0.292608981657727</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3">
-        <v>66.0</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="5">
-        <v>16.0</v>
-      </c>
-      <c r="D69" s="5">
-        <v>0.325192915530451</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="5">
-        <v>9.0</v>
-      </c>
-      <c r="D70" s="5">
-        <v>0.348470058400504</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3">
-        <v>68.0</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0.356487296776279</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D72" s="5">
-        <v>0.833878216978267</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D73" s="5">
-        <v>0.465989103753953</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="5">
-        <v>39.0</v>
-      </c>
-      <c r="D74" s="5">
-        <v>0.0856749832639437</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="5">
-        <v>43.0</v>
-      </c>
-      <c r="D75" s="5">
-        <v>0.130669677997763</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="5">
-        <v>36.0</v>
-      </c>
-      <c r="D76" s="5">
-        <v>0.154564068820687</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D77" s="5">
-        <v>0.567177615812726</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D78" s="5">
-        <v>0.553609314217783</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D79" s="5">
-        <v>0.479719708636276</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D80" s="5">
-        <v>0.435690459441037</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D81" s="5">
-        <v>0.421012229476511</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D82" s="5">
-        <v>0.548251444795686</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D83" s="5">
-        <v>0.284560070639088</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3">
-        <v>81.0</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D84" s="5">
-        <v>0.426459411031969</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D85" s="5">
-        <v>0.463341605381162</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3">
-        <v>83.0</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D86" s="5">
-        <v>0.466579074070998</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C87" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D87" s="5">
-        <v>0.768840531389084</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3">
-        <v>85.0</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C88" s="5">
-        <v>31.0</v>
-      </c>
-      <c r="D88" s="5">
-        <v>0.324420598273298</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="5">
-        <v>38.0</v>
-      </c>
-      <c r="D89" s="5">
-        <v>0.167872299069458</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3">
-        <v>87.0</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C90" s="5">
-        <v>6.0</v>
-      </c>
-      <c r="D90" s="5">
-        <v>0.239243121785857</v>
-      </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C91" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="D91" s="5">
-        <v>0.286802761945535</v>
-      </c>
+      <c r="A91" s="10"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="7"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8"/>
-    </row>
+      <c r="A92" s="11"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
@@ -2786,8 +2809,13 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/All_MIC_RFE_Results.xlsx
+++ b/All_MIC_RFE_Results.xlsx
@@ -631,8 +631,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.25"/>
     <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="3" width="28.13"/>
-    <col customWidth="1" min="4" max="4" width="17.38"/>
+    <col customWidth="1" min="3" max="3" width="15.38"/>
+    <col customWidth="1" min="4" max="4" width="15.13"/>
     <col customWidth="1" min="5" max="5" width="21.88"/>
     <col customWidth="1" min="6" max="6" width="12.63"/>
   </cols>
